--- a/biology/Botanique/Lycoris_squamigera/Lycoris_squamigera.xlsx
+++ b/biology/Botanique/Lycoris_squamigera/Lycoris_squamigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycoris squamigera Maxim. est une espèce de plantes à bulbes de la famille des Amaryllidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante à bulbe donne à l'automne une floraison rose sur un haute tige nue. Dans leurs aires de répartition commune, elle peut être facilement confondue de loin avec une autre Amaryllidacée : Amaryllis belladonna. Lycoris squamigera s'en distingue principalement par la disposition plus espacée et irrégulière des pétales formant le calice de la fleur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante à bulbe donne à l'automne une floraison rose sur un haute tige nue. Dans leurs aires de répartition commune, elle peut être facilement confondue de loin avec une autre Amaryllidacée : Amaryllis belladonna. Lycoris squamigera s'en distingue principalement par la disposition plus espacée et irrégulière des pétales formant le calice de la fleur.
 Comme les Amaryllis vraies, Lycoris squamigera fleurit sur une haute tige nue, ce qui le distingue aisément des Hippeastrum dont le feuillage pousse en même temps que la hampe florale.
 	Galerie d'identification
 			Fleurs de Lycoris squamigera.
@@ -547,7 +561,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite en 1884 par le botaniste russe Carl Maximowicz (1827-1891).
 </t>
